--- a/KETI_EAR CANAL_RF SENSOR_V2.xlsx
+++ b/KETI_EAR CANAL_RF SENSOR_V2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MM\Desktop\SMT HOME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MM\Desktop\SMT HOME\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A09A7FB-529F-4824-AEBA-0838B4A5CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442BD148-D7B6-4246-9274-F5F1BB57FD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DF87F91-3D63-49BB-9348-13FAB2FA2393}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DF87F91-3D63-49BB-9348-13FAB2FA2393}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM 등록 양식" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>BOM 등록 양식</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,290 +39,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reference(제품 위치값) EX)C1,C2,C3</t>
+    <t>100pF/50V/5%</t>
+  </si>
+  <si>
+    <t>0.1uF/50V/10%</t>
+  </si>
+  <si>
+    <t>4.7uF/16V/20%</t>
+  </si>
+  <si>
+    <t>10uF/6.3V/20%</t>
+  </si>
+  <si>
+    <t>22uF/10V/20%</t>
+  </si>
+  <si>
+    <t>2K/1%</t>
+  </si>
+  <si>
+    <t>4.3K/1%</t>
+  </si>
+  <si>
+    <t>7.5K/1%</t>
+  </si>
+  <si>
+    <t>20K/1%</t>
+  </si>
+  <si>
+    <t>100K/1%</t>
+  </si>
+  <si>
+    <t>200K/1%</t>
+  </si>
+  <si>
+    <t>300K/1%</t>
+  </si>
+  <si>
+    <t>330K/1%</t>
+  </si>
+  <si>
+    <t>1M/1%</t>
+  </si>
+  <si>
+    <t>10M/1%</t>
+  </si>
+  <si>
+    <t>10uH_4x4 -&gt; NRS4018T</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>BLU</t>
+  </si>
+  <si>
+    <t>MSS22D18_SMD</t>
+  </si>
+  <si>
+    <t>EG1215AA</t>
+  </si>
+  <si>
+    <t>Pogo_3P_S</t>
+  </si>
+  <si>
+    <t>Pogo_3P_P</t>
+  </si>
+  <si>
+    <t>FUS606-FSBK6M</t>
+  </si>
+  <si>
+    <t>PMEG3015EJ,115</t>
+  </si>
+  <si>
+    <t>LESD5D5.0CT1G</t>
+  </si>
+  <si>
+    <t>DMP2035U</t>
+  </si>
+  <si>
+    <t>FC2012SN32.768K-C5NNA0KC0</t>
+  </si>
+  <si>
+    <t>TW401012_30mA</t>
+  </si>
+  <si>
+    <t>500mAh</t>
+  </si>
+  <si>
+    <t>XC6802A42XER-G</t>
+  </si>
+  <si>
+    <t>AP3015KTR-G1</t>
+  </si>
+  <si>
+    <t>XC6802A42XMR-G</t>
+  </si>
+  <si>
+    <t>XC6215B332GR-G</t>
+  </si>
+  <si>
+    <t>ANNA-B402-00B</t>
+  </si>
+  <si>
+    <t>TLV369IDCKT</t>
+  </si>
+  <si>
+    <t>APX803L20-34SA-7</t>
+  </si>
+  <si>
+    <t>ZTP-148SRC1</t>
+  </si>
+  <si>
+    <t>C1005</t>
+  </si>
+  <si>
+    <t>C1608</t>
+  </si>
+  <si>
+    <t>C2012</t>
+  </si>
+  <si>
+    <t>R1005</t>
+  </si>
+  <si>
+    <t>SOT323-2</t>
+  </si>
+  <si>
+    <t>SOD-523</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>6-UFDFN</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>SOT25-5</t>
+  </si>
+  <si>
+    <t>USP-4</t>
+  </si>
+  <si>
+    <t>SC-70-5</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t>SEN(NDIR)</t>
+  </si>
+  <si>
+    <t>C17,C18</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C12,C15,C16,C19,C22,C23,C24</t>
+  </si>
+  <si>
+    <t>C11,C20,C21</t>
+  </si>
+  <si>
+    <t>C4,C5,C9,C10</t>
+  </si>
+  <si>
+    <t>C2,C3,C6,C7,C8</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R13,R14</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R4,R6</t>
+  </si>
+  <si>
+    <t>R20,R21,R22,R24</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R2,R5</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>LD1,LD2</t>
+  </si>
+  <si>
+    <t>LD3</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>ED1,ED2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>BT2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5,U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>12pF/50V/5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12pF/50V/5%</t>
-  </si>
-  <si>
-    <t>100pF/50V/5%</t>
-  </si>
-  <si>
-    <t>0.1uF/50V/10%</t>
-  </si>
-  <si>
-    <t>4.7uF/16V/20%</t>
-  </si>
-  <si>
-    <t>10uF/6.3V/20%</t>
-  </si>
-  <si>
-    <t>22uF/10V/20%</t>
+    <t>C1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1K/1%</t>
-  </si>
-  <si>
-    <t>2K/1%</t>
-  </si>
-  <si>
-    <t>4.3K/1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1,R10,R17,R18,R23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4.99K/1%</t>
-  </si>
-  <si>
-    <t>7.5K/1%</t>
-  </si>
-  <si>
-    <t>20K/1%</t>
-  </si>
-  <si>
-    <t>100K/1%</t>
-  </si>
-  <si>
-    <t>200K/1%</t>
-  </si>
-  <si>
-    <t>300K/1%</t>
-  </si>
-  <si>
-    <t>330K/1%</t>
-  </si>
-  <si>
-    <t>1M/1%</t>
-  </si>
-  <si>
-    <t>10M/1%</t>
-  </si>
-  <si>
-    <t>10uH_4x4 -&gt; NRS4018T</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>BLU</t>
-  </si>
-  <si>
-    <t>MSS22D18_SMD</t>
-  </si>
-  <si>
-    <t>EG1215AA</t>
-  </si>
-  <si>
-    <t>Pogo_3P_S</t>
-  </si>
-  <si>
-    <t>Pogo_3P_P</t>
-  </si>
-  <si>
-    <t>FUS606-FSBK6M</t>
-  </si>
-  <si>
-    <t>PMEG3015EJ,115</t>
-  </si>
-  <si>
-    <t>LESD5D5.0CT1G</t>
-  </si>
-  <si>
-    <t>DMP2035U</t>
-  </si>
-  <si>
-    <t>FC2012SN32.768K-C5NNA0KC0</t>
-  </si>
-  <si>
-    <t>TW401012_30mA</t>
-  </si>
-  <si>
-    <t>500mAh</t>
-  </si>
-  <si>
-    <t>XC6802A42XER-G</t>
-  </si>
-  <si>
-    <t>AP3015KTR-G1</t>
-  </si>
-  <si>
-    <t>XC6802A42XMR-G</t>
-  </si>
-  <si>
-    <t>XC6215B332GR-G</t>
-  </si>
-  <si>
-    <t>ANNA-B402-00B</t>
-  </si>
-  <si>
-    <t>TLV369IDCKT</t>
-  </si>
-  <si>
-    <t>APX803L20-34SA-7</t>
-  </si>
-  <si>
-    <t>ZTP-148SRC1</t>
-  </si>
-  <si>
-    <t>C1005</t>
-  </si>
-  <si>
-    <t>C1608</t>
-  </si>
-  <si>
-    <t>C2012</t>
-  </si>
-  <si>
-    <t>R1005</t>
-  </si>
-  <si>
-    <t>SOT323-2</t>
-  </si>
-  <si>
-    <t>SOD-523</t>
-  </si>
-  <si>
-    <t>SOT-23-3</t>
-  </si>
-  <si>
-    <t>6-UFDFN</t>
-  </si>
-  <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
-    <t>SOT25-5</t>
-  </si>
-  <si>
-    <t>USP-4</t>
-  </si>
-  <si>
-    <t>SC-70-5</t>
-  </si>
-  <si>
-    <t>SOT23-3</t>
-  </si>
-  <si>
-    <t>SEN(NDIR)</t>
-  </si>
-  <si>
-    <t>C17,C18</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C12,C15,C16,C19,C22,C23,C24</t>
-  </si>
-  <si>
-    <t>C11,C20,C21</t>
-  </si>
-  <si>
-    <t>C4,C5,C9,C10</t>
-  </si>
-  <si>
-    <t>C2,C3,C6,C7,C8</t>
-  </si>
-  <si>
-    <t>R1,R10,R17,R18,R23</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R13,R14</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R4,R6</t>
-  </si>
-  <si>
-    <t>R20,R21,R22,R24</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R2,R5</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>LD1,LD2</t>
-  </si>
-  <si>
-    <t>LD3</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>D1,D2</t>
-  </si>
-  <si>
-    <t>ED1,ED2</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>BT1</t>
-  </si>
-  <si>
-    <t>BT2</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5,U7</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>U10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference(제품 위치값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,10 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41644A15-3D4E-4166-92A0-4AF120BC8509}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,423 +758,423 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
